--- a/docs/VerifPlans/Simulation/privileged_spec/CV32E40X_Exceptions.xlsx
+++ b/docs/VerifPlans/Simulation/privileged_spec/CV32E40X_Exceptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strichmo\Desktop\Vplan update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropeders\Documents\exceptions_vplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66BA6F7-E892-4C04-96B6-5D76EB824185}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBD76FA-4642-4856-A0C5-ADD591B6697A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="630" windowWidth="22440" windowHeight="13950" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CV32E40X Exceptions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="132">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -110,9 +110,6 @@
     <t>ENV capability, not specific test</t>
   </si>
   <si>
-    <t>Show than mepc has the correct pc value in it when an exception occurs</t>
-  </si>
-  <si>
     <t>Machine Cause Register</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
 Chapter 5</t>
   </si>
   <si>
-    <t>Breakpoint</t>
-  </si>
-  <si>
     <t>If an EBREAK or C.EBREAK is executed and dcsr.ebreakm is 0 then a breakpoint exception is taken</t>
   </si>
   <si>
@@ -315,18 +309,12 @@
     <t>Environment call</t>
   </si>
   <si>
-    <t>If an EBREAK or C.EBREAK is executed and dcsr.ebreakm is 0 then an environment call exception is taken</t>
-  </si>
-  <si>
     <t>Store/AMO Access Fault</t>
   </si>
   <si>
     <t>A non-natively aligned store to I/O memory (via PMA attribution) will result in a store acccess fault exception</t>
   </si>
   <si>
-    <t>Breakpoint exception is entered with mcause set to 0x7</t>
-  </si>
-  <si>
     <t>An atomic write to a non-Atomic region (via PMA attribution) will result in a store access fault exception</t>
   </si>
   <si>
@@ -334,9 +322,6 @@
   </si>
   <si>
     <t>Load Access Fault</t>
-  </si>
-  <si>
-    <t>Breakpoint exception is entered with mcause set to 0x5</t>
   </si>
   <si>
     <t>A Load Reserved from a non-Atomic region (via PMA attribution) will result in a load access fault exception</t>
@@ -360,9 +345,6 @@
 Program Counter</t>
   </si>
   <si>
-    <t>mepc is set to the pc value of the instruction that generates an exception2</t>
-  </si>
-  <si>
     <t>Privileged Spec,
 Chapter 3.1.16</t>
   </si>
@@ -373,34 +355,228 @@
     <t>mcause correctly identifies the execption taken</t>
   </si>
   <si>
-    <t>mtval is unused in this implementation</t>
-  </si>
-  <si>
-    <t>mtval always reads zeros and is never writable</t>
+    <t>uvm_pkg.uvm_test_top.env.isacov_agent.cov_model.*.cp_rd</t>
+  </si>
+  <si>
+    <t>Exception is entered with mcause set to 0x7</t>
+  </si>
+  <si>
+    <t>Exception is entered with mcause set to 0x5</t>
+  </si>
+  <si>
+    <t>Exception is entered with mcause set to 0xB</t>
+  </si>
+  <si>
+    <t>If an ECALL is executed then an environment call exception is taken</t>
   </si>
   <si>
     <t>- Synchronous exceptions are of lower priority than all interrupts.
 - Exception priority (high to low)
+-- code=3 (Instruction address breakpoint)
 -- code=1 (PMA instruction access fault)
 -- code=48 (instruction bus fault)
 -- code=2 (illegal instruction)
--- code=11 (ECALL)
--- code=3 (EBREAK)
+-- code=11 (Environment call)
+-- code=3 (Environment break)
+-- code=3 (Load/store/amo address breakpoint)
 -- code=7 (PMA store/AMO access fault)
 -- code=5 (PMA load access fault)</t>
   </si>
   <si>
-    <t>PMA instruction access taken over instruction bus fault</t>
-  </si>
-  <si>
-    <t>ECALL takes precedence over EBREAK</t>
+    <t>mepc is set to the pc value of the instruction that generates an exception</t>
+  </si>
+  <si>
+    <t>Show that mepc has the correct pc value in it when an exception occurs</t>
+  </si>
+  <si>
+    <t>TODO check read and write to mtval (isacov?), check read with certain mcauses, also check if this item agrees with spec (PMA, Zce, buserr, ?)?</t>
+  </si>
+  <si>
+    <t>TODO It is yet TBD whether 40x shall support mtval or not</t>
+  </si>
+  <si>
+    <t>TODO https://github.com/openhwgroup/cv32e40x/issues/65</t>
+  </si>
+  <si>
+    <t>The scoreboard compares CSRs vs ISS state
+uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cp_trap
+uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cp_intr</t>
+  </si>
+  <si>
+    <t>The scoreboard compares CSRs vs ISS state</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attempt execution of an instruction with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>instruction address breakpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at the same time as one of the other reasons for exception occurred, for each of the other exceptions (pma instr acc fault, instr bus fault, illegal, …)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attempt execution of an instruction with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>instruction bus fault</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> combined with one of each of: Illegal instr, data-side address breakpoint, pma access fault</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For each of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>illegal instruction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ecall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ebreak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, attempt execution of it in combination with a data-side breakpoint</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attempt execution of an instruction with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>load/store/amo address breakpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> which would otherwise cause a PMA store/AMO access fault and also one which would cause a PMA load access fault</t>
+    </r>
+  </si>
+  <si>
+    <t>Debug Spec</t>
+  </si>
+  <si>
+    <t>Instruction address breakpoint</t>
+  </si>
+  <si>
+    <t>Environment break</t>
+  </si>
+  <si>
+    <t>Load/Store/AMO address breakpoint</t>
+  </si>
+  <si>
+    <t>When an instruction address has a trigger set for it and mcontrol.action==0 then a breakpoint exception is taken</t>
+  </si>
+  <si>
+    <t>When a load/store/amo address has a trigger set for it and mcontrol.action==0 then a breakpoint exception is taken</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cross_all_csrs</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cp_trap
+uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cp_intr uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cross_trap_to_mtvec uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cross_trap_in_mtvec</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cross_trap_mcause uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cross_intr_mcause</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cross_ebreak_trap uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cross_trap_mcause uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cross_intr_mcause</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -427,6 +603,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -483,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -491,26 +673,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -538,20 +705,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,8 +714,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,856 +1117,983 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ102"/>
+  <dimension ref="A1:AMJ106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="33.140625" style="2" customWidth="1"/>
     <col min="10" max="1023" width="17" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:1024" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:1024" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="D9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:1024" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:1024" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:1024" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:1024" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:1024" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="F25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:1024" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="AMJ23"/>
-    </row>
-    <row r="24" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="AMJ27"/>
     </row>
     <row r="28" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F88" s="6"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F89" s="6"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="6"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F91" s="6"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F92" s="6"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F93" s="6"/>
+      <c r="F93" s="4"/>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F94" s="6"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F95" s="6"/>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F96" s="6"/>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="6"/>
+      <c r="F97" s="4"/>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98" s="6"/>
+      <c r="F98" s="4"/>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F99" s="6"/>
+      <c r="F99" s="4"/>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F100" s="6"/>
+      <c r="F100" s="4"/>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101" s="6"/>
+      <c r="F101" s="4"/>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F102" s="6"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A16"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1807,7 +2107,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G24:G87 G2:G22</xm:sqref>
+          <xm:sqref>G28:G91 G2:G26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -1816,13 +2116,13 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F24:F102 F2:F22</xm:sqref>
+          <xm:sqref>F28:F106 F2:F26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF9AA8AF-FCA1-4BF9-9707-EC6D948B59BF}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$A$3:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E21</xm:sqref>
+          <xm:sqref>E2:E25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1839,28 +2139,28 @@
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1879,100 +2179,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1990,323 +2290,323 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>0</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>0</v>
-      </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>0</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>0</v>
-      </c>
-      <c r="B9" s="17">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>0</v>
-      </c>
-      <c r="B10" s="18">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>0</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>0</v>
-      </c>
-      <c r="B11" s="17">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>0</v>
-      </c>
-      <c r="B12" s="15">
-        <v>1</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>0</v>
-      </c>
-      <c r="B13" s="19">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>0</v>
-      </c>
-      <c r="B14" s="15">
-        <v>1</v>
-      </c>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>1</v>
-      </c>
-      <c r="B15" s="17">
-        <v>0</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>1</v>
-      </c>
-      <c r="B16" s="15">
-        <v>0</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>1</v>
-      </c>
-      <c r="B17" s="18">
-        <v>0</v>
-      </c>
-      <c r="C17" s="18">
-        <v>1</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15">
-        <v>0</v>
-      </c>
-      <c r="C18" s="15">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>1</v>
-      </c>
-      <c r="B19" s="15">
-        <v>1</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>1</v>
-      </c>
-      <c r="B20" s="15">
-        <v>1</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0</v>
-      </c>
-      <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>65</v>
+      <c r="A20" s="10">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>1</v>
-      </c>
-      <c r="B21" s="15">
-        <v>1</v>
-      </c>
-      <c r="C21" s="15">
-        <v>1</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>65</v>
+      <c r="A21" s="10">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>1</v>
-      </c>
-      <c r="B22" s="15">
-        <v>1</v>
-      </c>
-      <c r="C22" s="15">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>65</v>
+      <c r="A22" s="10">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VerifPlans/Simulation/privileged_spec/CV32E40X_Exceptions.xlsx
+++ b/docs/VerifPlans/Simulation/privileged_spec/CV32E40X_Exceptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropeders\Documents\exceptions_vplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\openhw\core-v-verif\cv32e40x\docs\VerifPlans\Simulation\privileged_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBD76FA-4642-4856-A0C5-ADD591B6697A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA77CA0-B10B-47B9-9504-94B976A68D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CV32E40X Exceptions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DONOTDELETE" sheetId="3" r:id="rId3"/>
     <sheet name="Permutations" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="131">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Machine Cause Register</t>
   </si>
   <si>
-    <t>Machine Trap Value</t>
-  </si>
-  <si>
     <t>Reset</t>
   </si>
   <si>
@@ -370,32 +367,10 @@
     <t>If an ECALL is executed then an environment call exception is taken</t>
   </si>
   <si>
-    <t>- Synchronous exceptions are of lower priority than all interrupts.
-- Exception priority (high to low)
--- code=3 (Instruction address breakpoint)
--- code=1 (PMA instruction access fault)
--- code=48 (instruction bus fault)
--- code=2 (illegal instruction)
--- code=11 (Environment call)
--- code=3 (Environment break)
--- code=3 (Load/store/amo address breakpoint)
--- code=7 (PMA store/AMO access fault)
--- code=5 (PMA load access fault)</t>
-  </si>
-  <si>
     <t>mepc is set to the pc value of the instruction that generates an exception</t>
   </si>
   <si>
     <t>Show that mepc has the correct pc value in it when an exception occurs</t>
-  </si>
-  <si>
-    <t>TODO check read and write to mtval (isacov?), check read with certain mcauses, also check if this item agrees with spec (PMA, Zce, buserr, ?)?</t>
-  </si>
-  <si>
-    <t>TODO It is yet TBD whether 40x shall support mtval or not</t>
-  </si>
-  <si>
-    <t>TODO https://github.com/openhwgroup/cv32e40x/issues/65</t>
   </si>
   <si>
     <t>The scoreboard compares CSRs vs ISS state
@@ -432,92 +407,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Attempt execution of an instruction with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>instruction bus fault</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> combined with one of each of: Illegal instr, data-side address breakpoint, pma access fault</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For each of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>illegal instruction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ecall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ebreak</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, attempt execution of it in combination with a data-side breakpoint</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Attempt execution of an instruction with a </t>
     </r>
     <r>
@@ -570,6 +459,34 @@
   </si>
   <si>
     <t>uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cross_ebreak_trap uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cross_trap_mcause uvm_pkg.uvm_test_top.env.cov_model.exceptions_covg.exceptions_cg.cross_intr_mcause</t>
+  </si>
+  <si>
+    <t>These asserts verify that debug is taken when an instruction address breakpoint is taken, implicitly making sure that other non-debug exceptions are not taken.</t>
+  </si>
+  <si>
+    <t>- Synchronous exceptions are of lower priority than all interrupts.
+- Exception priority (high to low)
+-- code=3 (Instruction address breakpoint)
+-- code=1 (PMA instruction access fault)
+-- code=24 (instruction bus fault)
+-- code=2 (illegal instruction)
+-- code=11 (Environment call)
+-- code=3 (Environment break)
+-- code=3 (Load/store/amo address breakpoint)
+-- code=7 (PMA store/AMO access fault)
+-- code=5 (PMA load access fault)</t>
+  </si>
+  <si>
+    <t>uvme_exceptions_covg.cg_exceptions.cp_mcause</t>
+  </si>
+  <si>
+    <t>uvmt_cv32e40x_trigger_assert_cov.a_dt_instr_trigger_hit_*</t>
+  </si>
+  <si>
+    <t>uvmt_cv32e40x_trigger_assert_cov.a_dt_[load/store]_trigger_hit_*</t>
+  </si>
+  <si>
+    <t>These asserts verify that debug is taken when an data address breakpoint is taken, implicitly making sure that PMA/AMO exceptions are not taken.</t>
   </si>
 </sst>
 </file>
@@ -665,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -676,13 +593,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,43 +603,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -734,6 +629,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,12 +1027,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ106"/>
+  <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,56 +1050,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -1199,10 +1109,10 @@
       </c>
     </row>
     <row r="3" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1212,888 +1122,541 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>105</v>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:1024" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>41</v>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:1024" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>41</v>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>41</v>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>41</v>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>41</v>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>41</v>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>41</v>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>41</v>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="20" t="s">
-        <v>95</v>
+      <c r="B15" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>41</v>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>41</v>
+      <c r="G16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:1024" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1024" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1024" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:1024" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:1024" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="22" t="s">
-        <v>120</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:1024" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="22" t="s">
-        <v>121</v>
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>41</v>
+      <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:1024" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="AMJ27"/>
-    </row>
-    <row r="28" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F93" s="4"/>
-    </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F96" s="4"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="4"/>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98" s="4"/>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F104" s="4"/>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F105" s="4"/>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F106" s="4"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="AMJ24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2107,7 +1670,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G28:G91 G2:G26</xm:sqref>
+          <xm:sqref>G25:G88 G2:G23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -2116,13 +1679,13 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F28:F106 F2:F26</xm:sqref>
+          <xm:sqref>F25:F103 F2:F23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF9AA8AF-FCA1-4BF9-9707-EC6D948B59BF}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$A$3:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E25</xm:sqref>
+          <xm:sqref>E2:E22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2139,28 +1702,28 @@
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2179,100 +1742,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2290,323 +1853,323 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>0</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>0</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>0</v>
-      </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>0</v>
-      </c>
-      <c r="B11" s="12">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>0</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>0</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>0</v>
-      </c>
-      <c r="B13" s="14">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>0</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>1</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>1</v>
-      </c>
-      <c r="B18" s="10">
-        <v>0</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>1</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>1</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>64</v>
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>1</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>64</v>
+      <c r="A21" s="8">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>1</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>64</v>
+      <c r="A22" s="8">
+        <v>1</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
